--- a/biology/Zoologie/Bumba_horrida/Bumba_horrida.xlsx
+++ b/biology/Zoologie/Bumba_horrida/Bumba_horrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bumba horrida est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bumba horrida est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Roraima et en Amazonas et au Venezuela en Amazonas[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Roraima et en Amazonas et au Venezuela en Amazonas,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 25 à 45 mm et les femelles jusqu'à 50 mm[2].
-Le mâle décrit par Bertani et Carla-da-Silva en 2003 mesure 43,9 mm et la femelle 52,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 25 à 45 mm et les femelles jusqu'à 50 mm.
+Le mâle décrit par Bertani et Carla-da-Silva en 2003 mesure 43,9 mm et la femelle 52,5 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paraphysa horrida par Schmidt en 1994. Elle est placée dans le genre Iracema par Bertani et Carla-da-Silva en 2003[3].
-Iracema cabocla[4] a été placée en synonymie par Lucas, Passanha et Brescovit en 2020[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Paraphysa horrida par Schmidt en 1994. Elle est placée dans le genre Iracema par Bertani et Carla-da-Silva en 2003.
+Iracema cabocla a été placée en synonymie par Lucas, Passanha et Brescovit en 2020.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1994 : Eine neue Paraphysa-Art aus Brasilien (Araneida: Theraphosidae: Theraphosinae), Paraphysa horrida sp. n. Arachnologisches Magazin, vol. 2, no 12, p. 1-7.</t>
         </is>
